--- a/6-Items and Equips Core 物品和装备核心.xlsx
+++ b/6-Items and Equips Core 物品和装备核心.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" activeTab="3"/>
+    <workbookView windowWidth="27945" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="视频翻译" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="B18" authorId="0">
+    <comment ref="B19" authorId="0">
       <text>
         <r>
           <rPr>
@@ -58,8 +58,88 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>刘鹏</author>
+  </authors>
+  <commentList>
+    <comment ref="B123" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">Compare： 比较。 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">将所选装备与当前装备的装备进行比较。
+    ·列出所有主要队伍角色
+    ·装备时显示参数的差异
+    ·计算自定义JS值
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">Classic： 经典。 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">显示所选装备的基本参数。
+    ·不涉及角色，只显示项目的统计数据。
+    ·显示武器与防具的特定参数。
+    ·不显示自定义JS值，因为这些值是按角色计算的。
+    ·不显示自定义参数，因为这些值是按角色计算的。
+    ·使用 &lt;Status Info&gt; 和 &lt;Custom Status Info&gt; 标签覆盖或添加自定义数据到经典装备数据中。
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Double： 双列。</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve"> 在双列中显示基本参数。
+    ·不涉及角色，只显示项目的统计数据。
+    ·显示武器与防具的特定参数。
+    ·不显示自定义JS值，因为这些值是按角色计算的。
+    ·不显示自定义参数，因为这些值是按角色计算的。
+    ·使用 &lt;Status Info&gt; 和 &lt;Custom Status Info&gt; 标签覆盖或添加自定义数据到经典装备数据中。</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="629">
   <si>
     <t>#6 Items&amp;Equips Core</t>
   </si>
@@ -373,6 +453,76 @@
   </si>
   <si>
     <t>道具</t>
+  </si>
+  <si>
+    <t>&lt;ID Sort Priority: x&gt;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>用于Scene_Item、Scene_Equip、Scene_Bartle和Scene_Shop的销售选项（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>仅在销售时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）
+将物品、武器或盔甲的ID</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>排序优先级</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">更改为“x”。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>·默认优先级为“50”
+·具有较高优先级值的物品、武器和盔甲将在列表中排序得更高，而较低的值将在列表上排序得更低。</t>
+    </r>
   </si>
   <si>
     <t>Item Accessibility Notetags  物品 可访问性</t>
@@ -520,6 +670,94 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">设置角色可以佩戴此装备的最大副本数。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x：数量限制。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <color theme="0" tint="-0.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>这可以使用事件命令和/或脚本调用绕过。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>示例：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+如果某戒指，有一个&lt;Equip Copy Limit: 1&gt;标签，则角色任何时候都只能装备一个这样的戒指（哪怕有更多的戒指插槽）</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;Equip Weapon Type Limit: x&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t>装备武器类型限制。</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <color theme="0" tint="-0.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>这可以使用事件命令和/或脚本调用绕过。</t>
+    </r>
+    <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
@@ -527,101 +765,11 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">设置角色可以佩戴此装备的最大副本数。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>x：数量限制。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">
 </t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">这可以使用事件命令和/或脚本调用绕过。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>示例：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-如果某戒指，有一个&lt;Equip Copy Limit: 1&gt;标签，则角色任何时候都只能装备一个这样的戒指（哪怕有更多的戒指插槽）</t>
-    </r>
-  </si>
-  <si>
-    <t>&lt;Equip Weapon Type Limit: x&gt;</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>装备武器类型限制。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>这可以使用事件命令和/或脚本调用绕过。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
         <b/>
         <sz val="10"/>
         <color rgb="FF0070C0"/>
@@ -651,24 +799,28 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>装备防具类型限制。</t>
     </r>
     <r>
       <rPr>
+        <strike/>
+        <sz val="10"/>
+        <color theme="0" tint="-0.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>这可以使用事件命令和/或脚本调用绕过。</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">这可以使用事件命令和/或脚本调用绕过。
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -1068,7 +1220,72 @@
 &lt;/JS Parameters&gt;</t>
   </si>
   <si>
-    <t>使用JavaScript根据用于计算其值的代码来确定基本参数的值。</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">使用JavaScript根据用于计算其值的代码来确定基本参数的值。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">变量'MaxHP'、'MaxMP'、'ATK'、'DEF'、'MAT'、'MDF'、'AGI'和'LUK'用于确定参数的最终值。此变量区分大小写。
+如果参数不存在，则其值将被视为+0。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>【警告】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>如果你试图根据一个完整的参数值计算一个值，
+比如“</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ATK = user.atk * 0.10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”，它会中断并导致无限循环。请改用基本参数值。</t>
+    </r>
   </si>
   <si>
     <t>Status Window Notetags  状态窗口</t>
@@ -1101,7 +1318,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>key：</t>
+      <t>技能和道具的 key：</t>
     </r>
     <r>
       <rPr>
@@ -1131,6 +1348,7 @@
   - User TP Gain    使用者TP增益
   - Added Effects   添加效果
   - Removed Effects 移除效果
+——————————————————————————————————————
 </t>
     </r>
     <r>
@@ -1142,6 +1360,74 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
+      <t>武器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>防具</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">的 key：
+  - 'MaxHP', 'MaxMP', 'ATK', 'DEF', 'MAT', 'MDF', 'AGI', or 'LUK'
+  - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">使用VisuMZ_0_CoreEngine:
+    - 'HIT', 'EVA', 'CRI', 'CEV', 'MEV', 'MRF', 'CNT', 'HRG', 'MRG', 'TRG'
+    - 'TGR', 'GRD', 'REC', 'PHA', 'MCR', 'TCR', 'PDR', 'MDR', 'FDR', 'EXR'
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  - 仅当装备的Draw Style设置为 "classic" 或 "double"时，才相关。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>data：</t>
     </r>
     <r>
@@ -1154,9 +1440,34 @@
       </rPr>
       <t>要直观显示的文本数据。可使用文本代码。</t>
     </r>
-  </si>
-  <si>
-    <t>技能、道具</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+这只会影响已经可见的信息条目，不会使其他类别突然出现。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>为明确"Damage Multiplier"和"HP Recovery"/"HP Damage":
+·"Damage Multiplier" 是指由伤害公式确定的数值。
+·"HP Recovery"/"HP Damage" 是指"生命值恢复"数据库效果。
+·同样，如果伤害公式类型是处理MP恢复/伤害，则同样适用于"MP Recovery"/"MP Damage"。</t>
+    </r>
+  </si>
+  <si>
+    <t>技能、道具、武器、防具</t>
   </si>
   <si>
     <t>&lt;Custom Status Info&gt;
@@ -1180,6 +1491,27 @@
     <r>
       <rPr>
         <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>当与武器或防具数据库对象一起使用时，只有当装备的绘制样式为"classic" 或 "double"时，此信息才相关。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <color rgb="FF0070C0"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -1187,6 +1519,243 @@
       </rPr>
       <t>key：所需标签的文本。可以使用文本代码。
 data：所需文本数据的文本，可以使用文本代码。</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;Status Style: Compare&gt;
+&lt;Status Style: Classic&gt;
+&lt;Status Style: Double&gt;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">更改店铺状态窗口显示此数据库对象数据的方式。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>·Compare（比较）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - 将所选装备与装备的装备进行比较
+    - 列出所有的主要队伍角色
+    - 装备时显示参数差异
+    - 计算自定义JS值
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>·Classic（经典）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - 显示所选装备的基本参数
+    - 不涉及角色，只显示物品的统计数据
+    - 显示武器或防具特定参数
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    - 不显示自定义JS值，因为这些值是按角色计算的
+    - 不显示自定义参数，因为这些参数是按角色计算的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    - 使用&lt;Status Info&gt;和&lt;Custom Status Info&gt;标签覆盖或添加自定义数据到经典装备数据中
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>·Double（双列）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - 在双列中显示基本参数
+    - 不涉及角色，只显示物品的统计数据
+    - 显示武器或防具特定参数
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    - 不显示自定义JS值，因为这些值是按角色计算的
+    - 不显示自定义参数，因为这些参数是按角色计算的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    - 使用&lt;Status Info&gt;和&lt;Custom Status Info&gt;标签覆盖或添加自定义数据到经典装备数据中</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;Custom Status Parameters: name, name, name&gt;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">需要：VisuMZ_0_CoreEngine!
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">自定义此装备对象的商店状态窗口显示的参数。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>这仅适用于店铺状态窗口，不适用于其他窗口。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>name：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- 'MaxHP', 'MaxMP', 'ATK', 'DEF', 'MAT', 'MDF', 'AGI', 'LUK'
+         - 'HIT', 'EVA', 'CRI', 'CEV', 'MEV', 'MRF', 'CNT', 'HRG', 'MRG', 'TRG'
+         - 'TGR', 'GRD', 'REC', 'PHA', 'MCR', 'TCR', 'PDR', 'MDR', 'FDR', 'EXR'
+         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- 不适用于自定义参数，因为这些参数是按参与者计算的。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>参数将按插入注释标签的顺序显示。</t>
     </r>
   </si>
   <si>
@@ -1216,9 +1785,6 @@
       <t>filename： img/pictures/ 文件夹下的图像。省略扩展名。
 使用标签来确定图像的位置，否则它们将默认为 背景层（Background）、适合窗口尺寸、居中。</t>
     </r>
-  </si>
-  <si>
-    <t>技能、道具、武器、防具</t>
   </si>
   <si>
     <t>&lt;Shop Picture Layer: Background&gt;
@@ -2292,6 +2858,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>Visibility Switch:</t>
     </r>
     <r>
@@ -2439,6 +3011,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>Sorted By:</t>
     </r>
     <r>
@@ -3073,7 +3651,22 @@
     <t>Equipment Data</t>
   </si>
   <si>
-    <t>Already Equipped:</t>
+    <t>Data Style:</t>
+  </si>
+  <si>
+    <t>您希望如何显示装备数据？</t>
+  </si>
+  <si>
+    <t>compare</t>
+  </si>
+  <si>
+    <t>Compare Style:</t>
+  </si>
+  <si>
+    <t>比较风格</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Already Equipped:</t>
   </si>
   <si>
     <t>显示已装备的物品的标记。</t>
@@ -3082,7 +3675,7 @@
     <t>E</t>
   </si>
   <si>
-    <t>Can't Equip:</t>
+    <t xml:space="preserve">  Can't Equip:</t>
   </si>
   <si>
     <t>显示不可装备的物品的标记</t>
@@ -3091,7 +3684,25 @@
     <t>-</t>
   </si>
   <si>
-    <t>Delay MS:</t>
+    <t xml:space="preserve">  No Changes:</t>
+  </si>
+  <si>
+    <t>显示未发生更改的标记</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  JS: Draw Equip Data:</t>
+  </si>
+  <si>
+    <t>JS：绘制装备数据：用于为商店状态窗口绘制设备数据的代码。</t>
+  </si>
+  <si>
+    <t>Classic Style:</t>
+  </si>
+  <si>
+    <t>经典风格</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Added Weapon Params:</t>
   </si>
   <si>
     <r>
@@ -3102,6 +3713,52 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
+      <t>选择武器/防具时显示这些参数。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>需要VisuMZ_0_CoreEngine!</t>
+    </r>
+  </si>
+  <si>
+    <t>["HIT"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Added Armor Params:</t>
+  </si>
+  <si>
+    <t>["EVA"]</t>
+  </si>
+  <si>
+    <t>Double Style:</t>
+  </si>
+  <si>
+    <t>双列风格</t>
+  </si>
+  <si>
+    <t>["HIT","CNT"]</t>
+  </si>
+  <si>
+    <t>["EVA","GRD"]</t>
+  </si>
+  <si>
+    <t>Delay MS:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">预览更新延迟多少毫秒（MS）？
 </t>
     </r>
@@ -3118,18 +3775,6 @@
   </si>
   <si>
     <t>240</t>
-  </si>
-  <si>
-    <t>No Changes:</t>
-  </si>
-  <si>
-    <t>显示未发生更改的标记</t>
-  </si>
-  <si>
-    <t>JS: Draw Equip Data:</t>
-  </si>
-  <si>
-    <t>JS：绘制装备数据：用于为商店状态窗口绘制设备数据的代码。</t>
   </si>
   <si>
     <t>Item Data</t>
@@ -3655,6 +4300,21 @@
   </si>
   <si>
     <t>消除</t>
+  </si>
+  <si>
+    <t>Weapon Type</t>
+  </si>
+  <si>
+    <t>武器类型</t>
+  </si>
+  <si>
+    <t>Armor Type</t>
+  </si>
+  <si>
+    <t>防具类型</t>
+  </si>
+  <si>
+    <t>No Equip Type</t>
   </si>
   <si>
     <t>盾牌</t>
@@ -3688,7 +4348,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="46">
+  <fonts count="50">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3920,8 +4580,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
-      <color rgb="FF00B050"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="10"/>
+      <color theme="0" tint="-0.5"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF0070C0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3931,6 +4622,28 @@
       <color rgb="FF0070C0"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF00B050"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF0070C0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF0070C0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3949,28 +4662,6 @@
       <color rgb="FF0070C0"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF0070C0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3996,6 +4687,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF7030A0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF00B050"/>
       <name val="宋体"/>
@@ -4004,20 +4702,11 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF0070C0"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color rgb="FF0070C0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -4576,7 +5265,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4693,6 +5382,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -4859,7 +5551,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12763500" y="171450"/>
+          <a:off x="12992100" y="171450"/>
           <a:ext cx="734060" cy="482600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4897,7 +5589,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12785725" y="678180"/>
+          <a:off x="13014325" y="678180"/>
           <a:ext cx="1182370" cy="1144270"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4915,13 +5607,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>276225</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>2476500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4939,7 +5631,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12801600" y="15211425"/>
+          <a:off x="13030200" y="15859125"/>
           <a:ext cx="3343275" cy="2200275"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4953,13 +5645,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>29210</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>102870</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4972,7 +5664,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12783185" y="19196050"/>
+          <a:off x="13011785" y="25577800"/>
           <a:ext cx="5769610" cy="4113530"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6069,8 +6761,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="46"/>
-      <c r="B1" s="47" t="s">
+      <c r="A1" s="47"/>
+      <c r="B1" s="48" t="s">
         <v>0</v>
       </c>
     </row>
@@ -6356,15 +7048,15 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="43.375" customWidth="1"/>
+    <col min="1" max="1" width="46.375" customWidth="1"/>
     <col min="2" max="2" width="98.25" customWidth="1"/>
     <col min="3" max="3" width="25.75" customWidth="1"/>
     <col min="4" max="4" width="29.75" customWidth="1"/>
@@ -6433,115 +7125,115 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" s="8" customFormat="1" spans="1:4">
-      <c r="A7" s="10" t="s">
+    <row r="7" customFormat="1" ht="51" spans="1:3">
+      <c r="A7" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="8" ht="54" spans="1:4">
-      <c r="A8" s="16" t="s">
+      <c r="B7" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="C7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" s="8" customFormat="1" spans="1:4">
+      <c r="A8" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D8" s="41" t="s">
-        <v>86</v>
-      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
     </row>
     <row r="9" ht="54" spans="1:4">
       <c r="A9" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" s="16" t="s">
         <v>87</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>88</v>
       </c>
       <c r="C9" t="s">
         <v>82</v>
       </c>
-      <c r="D9" s="42"/>
-    </row>
-    <row r="10" s="8" customFormat="1" spans="1:4">
-      <c r="A10" s="10" t="s">
+      <c r="D9" s="42" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" ht="54" spans="1:4">
+      <c r="A10" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-    </row>
-    <row r="11" ht="67.5" spans="1:3">
-      <c r="A11" s="16" t="s">
+      <c r="B10" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="C10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="43"/>
+    </row>
+    <row r="11" s="8" customFormat="1" spans="1:4">
+      <c r="A11" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+    </row>
+    <row r="12" ht="67.5" spans="1:3">
+      <c r="A12" s="16" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="12" ht="37.5" spans="1:3">
-      <c r="A12" s="16" t="s">
+      <c r="B12" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="C12" t="s">
         <v>94</v>
       </c>
-      <c r="C12" t="s">
+    </row>
+    <row r="13" ht="37.5" spans="1:3">
+      <c r="A13" s="16" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="13" ht="61.5" spans="1:3">
-      <c r="A13" s="16" t="s">
+      <c r="B13" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="C13" t="s">
         <v>97</v>
       </c>
-      <c r="C13" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="14" ht="37.5" spans="1:3">
-      <c r="A14" t="s">
+    </row>
+    <row r="14" ht="61.5" spans="1:3">
+      <c r="A14" s="16" t="s">
         <v>98</v>
       </c>
       <c r="B14" s="15" t="s">
         <v>99</v>
       </c>
       <c r="C14" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" ht="37.5" spans="1:3">
       <c r="A15" t="s">
+        <v>100</v>
+      </c>
+      <c r="B15" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="C15" t="s">
         <v>102</v>
       </c>
-      <c r="C15" t="s">
+    </row>
+    <row r="16" ht="37.5" spans="1:3">
+      <c r="A16" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="16" ht="81" spans="1:3">
-      <c r="A16" s="16" t="s">
+      <c r="B16" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="C16" t="s">
         <v>105</v>
       </c>
-      <c r="C16" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="17" ht="54" spans="1:3">
+    </row>
+    <row r="17" ht="81" spans="1:3">
       <c r="A17" s="16" t="s">
         <v>106</v>
       </c>
@@ -6549,10 +7241,10 @@
         <v>107</v>
       </c>
       <c r="C17" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="18" ht="195" spans="1:4">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" ht="54" spans="1:3">
       <c r="A18" s="16" t="s">
         <v>108</v>
       </c>
@@ -6560,268 +7252,268 @@
         <v>109</v>
       </c>
       <c r="C18" t="s">
-        <v>95</v>
-      </c>
-      <c r="D18" s="15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" ht="195" spans="1:4">
+      <c r="A19" s="16" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="19" ht="39" spans="1:4">
-      <c r="A19" s="16" t="s">
+      <c r="B19" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="B19" s="43" t="s">
+      <c r="C19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="C19" t="s">
-        <v>103</v>
-      </c>
-      <c r="D19" s="15"/>
-    </row>
-    <row r="20" ht="61.5" spans="1:4">
+    </row>
+    <row r="20" ht="39" spans="1:4">
       <c r="A20" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="B20" s="40" t="s">
+      <c r="B20" s="44" t="s">
         <v>114</v>
       </c>
       <c r="C20" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="D20" s="15"/>
     </row>
-    <row r="21" ht="49.5" spans="1:4">
+    <row r="21" ht="61.5" spans="1:4">
       <c r="A21" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="B21" s="40" t="s">
+      <c r="B21" s="41" t="s">
         <v>116</v>
       </c>
       <c r="C21" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D21" s="15"/>
     </row>
-    <row r="22" ht="135" spans="1:3">
-      <c r="A22" s="44" t="s">
+    <row r="22" ht="49.5" spans="1:4">
+      <c r="A22" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="41" t="s">
         <v>118</v>
       </c>
       <c r="C22" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="23" s="8" customFormat="1" spans="1:4">
-      <c r="A23" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D22" s="15"/>
+    </row>
+    <row r="23" ht="135" spans="1:3">
+      <c r="A23" s="45" t="s">
         <v>119</v>
       </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-    </row>
-    <row r="24" ht="265.5" spans="1:3">
-      <c r="A24" s="16" t="s">
+      <c r="B23" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="C23" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" s="8" customFormat="1" spans="1:4">
+      <c r="A24" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="C24" t="s">
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+    </row>
+    <row r="25" ht="409.5" spans="1:3">
+      <c r="A25" s="16" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="25" ht="67.5" spans="1:3">
-      <c r="A25" s="16" t="s">
+      <c r="B25" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="C25" t="s">
         <v>124</v>
       </c>
-      <c r="C25" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="26" ht="51" spans="1:3">
-      <c r="A26" t="s">
+    </row>
+    <row r="26" ht="67.5" spans="1:3">
+      <c r="A26" s="16" t="s">
         <v>125</v>
       </c>
       <c r="B26" s="15" t="s">
         <v>126</v>
       </c>
       <c r="C26" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="27" ht="205.5" spans="1:3">
+      <c r="A27" s="16" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="27" ht="37.5" spans="1:3">
-      <c r="A27" s="16" t="s">
+      <c r="B27" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="C27" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" ht="102" spans="1:3">
+      <c r="A28" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="C27" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="28" ht="40.5" spans="1:3">
-      <c r="A28" s="16" t="s">
+      <c r="B28" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="C28" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" ht="51" spans="1:3">
+      <c r="A29" t="s">
         <v>131</v>
       </c>
-      <c r="C28" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="29" ht="40.5" spans="1:3">
-      <c r="A29" s="16" t="s">
+      <c r="B29" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="C29" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="30" ht="37.5" spans="1:3">
+      <c r="A30" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="C29" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="30" ht="40.5" spans="1:3">
-      <c r="A30" s="16" t="s">
+      <c r="B30" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="C30" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="31" ht="40.5" spans="1:3">
+      <c r="A31" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="C30" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="31" ht="108" spans="1:3">
-      <c r="A31" s="16" t="s">
+      <c r="B31" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="C31" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="32" ht="40.5" spans="1:3">
+      <c r="A32" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="C31" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="32" ht="37.5" spans="1:3">
-      <c r="A32" s="16" t="s">
+      <c r="B32" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="C32" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="33" ht="40.5" spans="1:3">
+      <c r="A33" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="C32" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="33" s="8" customFormat="1" spans="1:4">
-      <c r="A33" s="10" t="s">
+      <c r="B33" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
+      <c r="C33" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="34" ht="108" spans="1:3">
+      <c r="A34" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="15" t="s">
         <v>142</v>
       </c>
       <c r="C34" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="35" ht="27" spans="1:3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="35" ht="37.5" spans="1:3">
       <c r="A35" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="15" t="s">
         <v>144</v>
       </c>
       <c r="C35" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="36" s="8" customFormat="1" spans="1:4">
+      <c r="A36" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
         <v>146</v>
       </c>
-      <c r="C36" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="37" ht="54" spans="1:3">
-      <c r="A37" s="16" t="s">
+      <c r="B37" t="s">
         <v>147</v>
-      </c>
-      <c r="B37" s="15" t="s">
-        <v>148</v>
       </c>
       <c r="C37" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="38" ht="54" spans="1:3">
+    <row r="38" ht="27" spans="1:3">
       <c r="A38" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="B38" t="s">
         <v>149</v>
-      </c>
-      <c r="B38" s="15" t="s">
-        <v>150</v>
       </c>
       <c r="C38" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="39" ht="54" spans="1:3">
-      <c r="A39" s="16" t="s">
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>150</v>
+      </c>
+      <c r="B39" t="s">
         <v>151</v>
-      </c>
-      <c r="B39" s="15" t="s">
-        <v>152</v>
       </c>
       <c r="C39" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="40" ht="27" spans="1:3">
+    <row r="40" ht="54" spans="1:3">
       <c r="A40" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="B40" s="15" t="s">
         <v>153</v>
-      </c>
-      <c r="B40" s="15" t="s">
-        <v>154</v>
       </c>
       <c r="C40" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="41" ht="27" spans="1:3">
+    <row r="41" ht="54" spans="1:3">
       <c r="A41" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="B41" s="15" t="s">
         <v>155</v>
-      </c>
-      <c r="B41" s="15" t="s">
-        <v>156</v>
       </c>
       <c r="C41" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="42" ht="27" spans="1:3">
+    <row r="42" ht="54" spans="1:3">
       <c r="A42" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="B42" s="15" t="s">
         <v>157</v>
-      </c>
-      <c r="B42" s="15" t="s">
-        <v>158</v>
       </c>
       <c r="C42" t="s">
         <v>72</v>
@@ -6829,40 +7521,73 @@
     </row>
     <row r="43" ht="27" spans="1:3">
       <c r="A43" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="B43" s="15" t="s">
         <v>159</v>
-      </c>
-      <c r="B43" s="15" t="s">
-        <v>160</v>
       </c>
       <c r="C43" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="44" ht="67.5" spans="1:3">
-      <c r="A44" s="45" t="s">
+    <row r="44" ht="27" spans="1:3">
+      <c r="A44" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="B44" s="15" t="s">
         <v>161</v>
-      </c>
-      <c r="B44" s="15" t="s">
-        <v>162</v>
       </c>
       <c r="C44" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="45" ht="67.5" spans="1:3">
-      <c r="A45" s="45" t="s">
+    <row r="45" ht="27" spans="1:3">
+      <c r="A45" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="B45" s="15" t="s">
         <v>163</v>
-      </c>
-      <c r="B45" s="15" t="s">
-        <v>164</v>
       </c>
       <c r="C45" t="s">
         <v>72</v>
       </c>
     </row>
+    <row r="46" ht="27" spans="1:3">
+      <c r="A46" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="C46" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" ht="67.5" spans="1:3">
+      <c r="A47" s="46" t="s">
+        <v>166</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="C47" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" ht="67.5" spans="1:3">
+      <c r="A48" s="46" t="s">
+        <v>168</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="C48" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D9:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -6889,66 +7614,66 @@
   <sheetData>
     <row r="1" s="8" customFormat="1" spans="1:4">
       <c r="A1" s="10" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
     </row>
     <row r="2" ht="49.5" spans="1:2">
-      <c r="A2" s="39" t="s">
-        <v>166</v>
-      </c>
-      <c r="B2" s="40" t="s">
-        <v>167</v>
+      <c r="A2" s="40" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="3" ht="37.5" spans="1:2">
-      <c r="A3" s="39" t="s">
-        <v>168</v>
+      <c r="A3" s="40" t="s">
+        <v>173</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" s="8" customFormat="1" spans="1:4">
       <c r="A4" s="10" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
     </row>
     <row r="5" customFormat="1" ht="39" spans="1:2">
-      <c r="A5" s="39" t="s">
-        <v>171</v>
+      <c r="A5" s="40" t="s">
+        <v>176</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" customFormat="1" ht="25.5" spans="1:2">
-      <c r="A6" s="39" t="s">
-        <v>173</v>
+      <c r="A6" s="40" t="s">
+        <v>178</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" s="8" customFormat="1" spans="1:4">
       <c r="A7" s="10" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
     </row>
     <row r="8" ht="231" spans="1:2">
-      <c r="A8" s="39" t="s">
-        <v>176</v>
+      <c r="A8" s="40" t="s">
+        <v>181</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -6960,10 +7685,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H133"/>
+  <dimension ref="A1:H143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="M56" sqref="M56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -6978,7 +7703,7 @@
   <sheetData>
     <row r="1" s="8" customFormat="1" spans="1:4">
       <c r="A1" s="10" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="11"/>
@@ -6986,7 +7711,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="12" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="14"/>
@@ -6994,29 +7719,29 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="B3" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="B4" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="12" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="14"/>
@@ -7024,18 +7749,18 @@
     </row>
     <row r="6" ht="37.5" spans="1:3">
       <c r="A6" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="12" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="14"/>
@@ -7043,40 +7768,40 @@
     </row>
     <row r="8" ht="40.5" spans="1:3">
       <c r="A8" s="16" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="B8" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="B10" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="12" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="B11" s="13"/>
       <c r="C11" s="14"/>
@@ -7084,40 +7809,40 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="B12" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B13" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="18" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B15" s="18"/>
       <c r="C15" s="19"/>
@@ -7125,7 +7850,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="12" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="B16" s="13"/>
       <c r="C16" s="14"/>
@@ -7133,18 +7858,18 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="B17" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="10" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="11"/>
@@ -7152,7 +7877,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="12" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="B19" s="13"/>
       <c r="C19" s="14"/>
@@ -7160,45 +7885,45 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="B20" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21" ht="205.5" spans="2:3">
       <c r="B21" s="22" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="C21" s="21"/>
     </row>
     <row r="22" ht="30" spans="2:3">
       <c r="B22" s="22" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C22" s="21"/>
     </row>
     <row r="23" ht="30.75" spans="2:3">
       <c r="B23" s="22" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C23" s="21"/>
     </row>
     <row r="24" spans="2:7">
       <c r="B24" s="23" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="F24" s="25"/>
       <c r="G24" s="25">
@@ -7207,7 +7932,7 @@
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="26" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="C25" s="21" t="s">
         <v>82</v>
@@ -7216,7 +7941,7 @@
         <v>82</v>
       </c>
       <c r="E25" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="F25">
         <v>227</v>
@@ -7227,16 +7952,16 @@
     </row>
     <row r="26" spans="2:7">
       <c r="B26" s="26" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E26" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="F26">
         <v>102</v>
@@ -7247,16 +7972,16 @@
     </row>
     <row r="27" spans="2:7">
       <c r="B27" s="26" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="E27" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="F27">
         <v>128</v>
@@ -7267,16 +7992,16 @@
     </row>
     <row r="28" spans="2:7">
       <c r="B28" s="26" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="E28" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="F28">
         <v>132</v>
@@ -7287,16 +8012,16 @@
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="26" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="E29" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="F29">
         <v>137</v>
@@ -7307,16 +8032,16 @@
     </row>
     <row r="30" spans="2:7">
       <c r="B30" s="26" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="E30" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="F30">
         <v>159</v>
@@ -7327,16 +8052,16 @@
     </row>
     <row r="31" spans="2:8">
       <c r="B31" s="26" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="D31" s="27" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="E31" s="28" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="F31" s="28">
         <v>188</v>
@@ -7350,16 +8075,16 @@
     </row>
     <row r="32" spans="2:7">
       <c r="B32" s="26" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="E32" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="F32">
         <v>277</v>
@@ -7371,13 +8096,13 @@
     <row r="33" ht="14.25" spans="2:7">
       <c r="B33" s="29"/>
       <c r="C33" s="21" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="E33" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="F33">
         <v>196</v>
@@ -7389,10 +8114,10 @@
     <row r="34" spans="3:7">
       <c r="C34" s="21"/>
       <c r="D34" s="9" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E34" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="F34">
         <v>191</v>
@@ -7403,7 +8128,7 @@
     </row>
     <row r="35" ht="49.5" spans="2:3">
       <c r="B35" s="22" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="C35" s="21"/>
     </row>
@@ -7424,32 +8149,32 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="B41" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="D41" s="20" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="B42" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="12" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="B43" s="13"/>
       <c r="C43" s="14"/>
@@ -7457,71 +8182,71 @@
     </row>
     <row r="44" customFormat="1" spans="1:3">
       <c r="A44" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C44" s="30" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="45" customFormat="1" spans="1:3">
       <c r="A45" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="C45" s="30" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
     </row>
     <row r="46" customFormat="1" spans="1:3">
       <c r="A46" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
     </row>
     <row r="47" customFormat="1" spans="1:3">
       <c r="A47" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="48" customFormat="1" spans="1:3">
       <c r="A48" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
     </row>
     <row r="49" customFormat="1" spans="1:3">
       <c r="A49" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
     </row>
     <row r="50" customFormat="1" spans="1:3">
       <c r="A50" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="51" s="2" customFormat="1" spans="1:3">
       <c r="A51" s="2" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="C51" s="31" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="10" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="B52" s="10"/>
       <c r="C52" s="11"/>
@@ -7529,84 +8254,84 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B53" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="B55" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="D55" s="32" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="56" ht="40.5" spans="1:3">
       <c r="A56" s="16" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="C56" s="33" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="B57" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="B58" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
     </row>
     <row r="59" ht="27" spans="1:3">
       <c r="A59" s="16" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="B59" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="C59" s="33" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="10" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="B60" s="10"/>
       <c r="C60" s="11"/>
@@ -7614,7 +8339,7 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="12" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="B61" s="13"/>
       <c r="C61" s="14"/>
@@ -7622,134 +8347,134 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="B62" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="B63" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="B64" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="18" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="B65" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="C65" s="21" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="18" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="B66" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="C66" s="21" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="18" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="B67" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="C67" s="21" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="B68" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="B69" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="B70" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="B71" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="D71" s="20" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="72" ht="37.5" spans="1:4">
       <c r="A72" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="D72" s="20" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="12" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="B73" s="13"/>
       <c r="C73" s="14"/>
@@ -7757,122 +8482,122 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="B74" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="B75" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="B76" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="B77" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="D77" s="20" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="B78" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C78" s="34" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="D79" s="20" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="E79" s="35"/>
       <c r="F79" s="35"/>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="B80" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="B81" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="C81" s="34" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="C82" s="36" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="D82" s="20" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="B83" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="12" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="B84" s="13"/>
       <c r="C84" s="14"/>
@@ -7880,43 +8605,43 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="B85" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="B86" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="C86" s="37" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="D86" s="20" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="B87" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="12" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="B88" s="13"/>
       <c r="C88" s="14"/>
@@ -7924,40 +8649,40 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="B89" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="90" ht="27" spans="1:3">
       <c r="A90" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="B90" s="38" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
     </row>
     <row r="91" ht="27" spans="1:3">
       <c r="A91" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="B91" s="38" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="12" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="B92" s="13"/>
       <c r="C92" s="14"/>
@@ -7965,21 +8690,21 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="B93" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="C93" s="37" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="D93" s="20" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="10" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="B94" s="10"/>
       <c r="C94" s="11"/>
@@ -7987,7 +8712,7 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="12" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="B95" s="13"/>
       <c r="C95" s="14"/>
@@ -7995,29 +8720,29 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="B96" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="B97" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="12" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="B98" s="13"/>
       <c r="C98" s="14"/>
@@ -8025,29 +8750,29 @@
     </row>
     <row r="99" ht="27" spans="1:3">
       <c r="A99" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="B99" s="16" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="100" ht="27" spans="1:3">
       <c r="A100" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="B100" s="16" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="12" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="B101" s="13"/>
       <c r="C101" s="14"/>
@@ -8055,87 +8780,87 @@
     </row>
     <row r="102" ht="25.5" spans="1:3">
       <c r="A102" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="B102" s="15" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="B103" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="B104" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="B105" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="B106" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="B107" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="B108" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="C108" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="D108" s="20" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="12" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="B109" s="13"/>
       <c r="C109" s="14"/>
@@ -8143,40 +8868,40 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="B110" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="18" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="B111" s="16" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="C111" s="21" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="18" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="B112" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="C112" s="21" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="12" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="B113" s="13"/>
       <c r="C113" s="14"/>
@@ -8184,18 +8909,18 @@
     </row>
     <row r="114" ht="27" spans="1:3">
       <c r="A114" s="16" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="B114" s="16" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="C114" s="33" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="10" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="B115" s="10"/>
       <c r="C115" s="11"/>
@@ -8203,7 +8928,7 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="12" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="B116" s="13"/>
       <c r="C116" s="14"/>
@@ -8211,65 +8936,65 @@
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="B117" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="B118" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="B119" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="B120" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="B121" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="D121" s="20" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="12" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="B122" s="13"/>
       <c r="C122" s="14"/>
@@ -8277,131 +9002,245 @@
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="B123" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
-      <c r="A124" t="s">
-        <v>421</v>
-      </c>
-      <c r="B124" t="s">
-        <v>422</v>
-      </c>
-      <c r="C124" s="9" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="125" ht="25.5" spans="1:3">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C124" s="39"/>
+      <c r="D124" s="39"/>
+    </row>
+    <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>424</v>
-      </c>
-      <c r="B125" s="15" t="s">
-        <v>425</v>
+        <v>428</v>
+      </c>
+      <c r="B125" t="s">
+        <v>429</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="B126" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
     </row>
     <row r="127" spans="1:3">
-      <c r="A127" s="18" t="s">
-        <v>429</v>
+      <c r="A127" t="s">
+        <v>434</v>
       </c>
       <c r="B127" t="s">
-        <v>430</v>
-      </c>
-      <c r="C127" s="21" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4">
-      <c r="A128" s="12" t="s">
-        <v>431</v>
-      </c>
-      <c r="B128" s="13"/>
-      <c r="C128" s="14"/>
-      <c r="D128" s="14"/>
-    </row>
-    <row r="129" ht="25.5" spans="1:3">
-      <c r="A129" t="s">
-        <v>432</v>
-      </c>
-      <c r="B129" s="15" t="s">
+        <v>435</v>
+      </c>
+      <c r="C127" s="9" t="s">
         <v>433</v>
       </c>
-      <c r="C129" s="9" t="s">
-        <v>434</v>
-      </c>
+    </row>
+    <row r="128" customFormat="1" spans="1:4">
+      <c r="A128" s="18" t="s">
+        <v>436</v>
+      </c>
+      <c r="B128" t="s">
+        <v>437</v>
+      </c>
+      <c r="C128" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="D128" s="9"/>
+    </row>
+    <row r="129" customFormat="1" spans="1:4">
+      <c r="A129" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C129" s="39"/>
+      <c r="D129" s="39"/>
     </row>
     <row r="130" spans="1:3">
-      <c r="A130" t="s">
-        <v>435</v>
-      </c>
-      <c r="B130" t="s">
+      <c r="A130" s="16" t="s">
+        <v>440</v>
+      </c>
+      <c r="B130" s="17" t="s">
+        <v>441</v>
+      </c>
+      <c r="C130" s="9" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="131" customFormat="1" spans="1:4">
+      <c r="A131" s="16" t="s">
+        <v>443</v>
+      </c>
+      <c r="B131" s="17"/>
+      <c r="C131" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="D131" s="9"/>
+    </row>
+    <row r="132" customFormat="1" spans="1:4">
+      <c r="A132" s="18" t="s">
         <v>436</v>
       </c>
-      <c r="C130" s="9" t="s">
+      <c r="B132" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="131" spans="1:3">
-      <c r="A131" s="18" t="s">
-        <v>438</v>
-      </c>
-      <c r="B131" t="s">
-        <v>439</v>
-      </c>
-      <c r="C131" s="21" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4">
-      <c r="A132" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="B132" s="13"/>
-      <c r="C132" s="14"/>
-      <c r="D132" s="14"/>
-    </row>
-    <row r="133" ht="135" spans="1:2">
-      <c r="A133" s="16" t="s">
+      <c r="C132" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="D132" s="9"/>
+    </row>
+    <row r="133" customFormat="1" spans="1:4">
+      <c r="A133" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C133" s="39"/>
+      <c r="D133" s="39"/>
+    </row>
+    <row r="134" customFormat="1" spans="1:4">
+      <c r="A134" s="16" t="s">
         <v>440</v>
       </c>
-      <c r="B133" s="16" t="s">
+      <c r="B134" s="17" t="s">
         <v>441</v>
       </c>
+      <c r="C134" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="D134" s="9"/>
+    </row>
+    <row r="135" customFormat="1" spans="1:4">
+      <c r="A135" s="16" t="s">
+        <v>443</v>
+      </c>
+      <c r="B135" s="17"/>
+      <c r="C135" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="D135" s="9"/>
+    </row>
+    <row r="136" customFormat="1" spans="1:4">
+      <c r="A136" s="18" t="s">
+        <v>436</v>
+      </c>
+      <c r="B136" t="s">
+        <v>437</v>
+      </c>
+      <c r="C136" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="D136" s="9"/>
+    </row>
+    <row r="137" ht="25.5" spans="1:3">
+      <c r="A137" t="s">
+        <v>449</v>
+      </c>
+      <c r="B137" s="15" t="s">
+        <v>450</v>
+      </c>
+      <c r="C137" s="9" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="12" t="s">
+        <v>452</v>
+      </c>
+      <c r="B138" s="13"/>
+      <c r="C138" s="14"/>
+      <c r="D138" s="14"/>
+    </row>
+    <row r="139" ht="25.5" spans="1:3">
+      <c r="A139" t="s">
+        <v>453</v>
+      </c>
+      <c r="B139" s="15" t="s">
+        <v>454</v>
+      </c>
+      <c r="C139" s="9" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" t="s">
+        <v>456</v>
+      </c>
+      <c r="B140" t="s">
+        <v>457</v>
+      </c>
+      <c r="C140" s="9" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="18" t="s">
+        <v>459</v>
+      </c>
+      <c r="B141" t="s">
+        <v>460</v>
+      </c>
+      <c r="C141" s="21" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="B142" s="13"/>
+      <c r="C142" s="14"/>
+      <c r="D142" s="14"/>
+    </row>
+    <row r="143" ht="135" spans="1:2">
+      <c r="A143" s="16" t="s">
+        <v>461</v>
+      </c>
+      <c r="B143" s="16" t="s">
+        <v>462</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B130:B131"/>
+    <mergeCell ref="B134:B135"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D82"/>
+  <dimension ref="A1:D87"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C85" sqref="C85:C86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -8414,739 +9253,769 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="3" t="s">
-        <v>442</v>
+        <v>463</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:3">
       <c r="A2" s="4" t="s">
-        <v>443</v>
+        <v>464</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:1">
       <c r="A3" s="5" t="s">
-        <v>444</v>
+        <v>465</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C4" t="s">
-        <v>445</v>
+        <v>466</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="C5" t="s">
-        <v>446</v>
+        <v>467</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="C6" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="C7" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="C8" t="s">
-        <v>447</v>
+        <v>468</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="C9" t="s">
-        <v>448</v>
+        <v>469</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="C10" t="s">
-        <v>449</v>
+        <v>470</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:3">
       <c r="A11" s="2" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="1:1">
       <c r="A12" s="3" t="s">
-        <v>450</v>
+        <v>471</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>451</v>
+        <v>472</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:1">
       <c r="A14" s="3" t="s">
-        <v>452</v>
+        <v>473</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>453</v>
+        <v>474</v>
       </c>
       <c r="C15" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
     </row>
     <row r="16" s="2" customFormat="1" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>454</v>
+        <v>475</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="1:1">
       <c r="A17" s="3" t="s">
-        <v>455</v>
+        <v>476</v>
       </c>
     </row>
     <row r="18" s="2" customFormat="1" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>456</v>
+        <v>477</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="1:1">
       <c r="A19" s="3" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="C20" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>457</v>
+        <v>478</v>
       </c>
       <c r="C21" t="s">
-        <v>447</v>
+        <v>468</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>458</v>
+        <v>479</v>
       </c>
       <c r="C22" t="s">
-        <v>448</v>
+        <v>469</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>459</v>
+        <v>480</v>
       </c>
       <c r="C23" t="s">
-        <v>460</v>
+        <v>481</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>461</v>
+        <v>482</v>
       </c>
       <c r="B25" t="s">
-        <v>462</v>
+        <v>483</v>
       </c>
       <c r="C25" t="s">
-        <v>463</v>
+        <v>484</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>464</v>
+        <v>485</v>
       </c>
       <c r="B26" t="s">
-        <v>465</v>
+        <v>486</v>
       </c>
       <c r="C26" t="s">
-        <v>466</v>
+        <v>487</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>467</v>
+        <v>488</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>468</v>
+        <v>489</v>
       </c>
       <c r="B27" t="s">
-        <v>469</v>
+        <v>490</v>
       </c>
       <c r="C27" t="s">
-        <v>470</v>
+        <v>491</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>471</v>
+        <v>492</v>
       </c>
       <c r="B28" t="s">
-        <v>472</v>
+        <v>493</v>
       </c>
       <c r="C28" t="s">
-        <v>473</v>
+        <v>494</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>474</v>
+        <v>495</v>
       </c>
       <c r="B29" t="s">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="C29" t="s">
-        <v>476</v>
+        <v>497</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>477</v>
+        <v>498</v>
       </c>
       <c r="B30" t="s">
-        <v>478</v>
+        <v>499</v>
       </c>
       <c r="C30" t="s">
-        <v>479</v>
+        <v>500</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>480</v>
+        <v>501</v>
       </c>
       <c r="B31" t="s">
-        <v>481</v>
+        <v>502</v>
       </c>
       <c r="C31" t="s">
-        <v>482</v>
+        <v>503</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>483</v>
+        <v>504</v>
       </c>
       <c r="B32" t="s">
-        <v>483</v>
+        <v>504</v>
       </c>
       <c r="C32" t="s">
-        <v>484</v>
+        <v>505</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>485</v>
+        <v>506</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>486</v>
+        <v>507</v>
       </c>
       <c r="B33" t="s">
-        <v>487</v>
+        <v>508</v>
       </c>
       <c r="C33" t="s">
-        <v>488</v>
+        <v>509</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>489</v>
+        <v>510</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>490</v>
+        <v>511</v>
       </c>
       <c r="B34" t="s">
-        <v>491</v>
+        <v>512</v>
       </c>
       <c r="C34" t="s">
-        <v>492</v>
+        <v>513</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>493</v>
+        <v>514</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>494</v>
+        <v>515</v>
       </c>
       <c r="B35" t="s">
-        <v>495</v>
+        <v>516</v>
       </c>
       <c r="C35" t="s">
-        <v>496</v>
+        <v>517</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>497</v>
+        <v>518</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>498</v>
+        <v>519</v>
       </c>
       <c r="B36" t="s">
-        <v>499</v>
+        <v>520</v>
       </c>
       <c r="C36" t="s">
-        <v>500</v>
+        <v>521</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>501</v>
+        <v>522</v>
       </c>
       <c r="B37" t="s">
-        <v>502</v>
+        <v>523</v>
       </c>
       <c r="C37" t="s">
-        <v>503</v>
+        <v>524</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>504</v>
+        <v>525</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>505</v>
+        <v>526</v>
       </c>
       <c r="B38" t="s">
-        <v>486</v>
+        <v>507</v>
       </c>
       <c r="C38" t="s">
-        <v>489</v>
+        <v>510</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>506</v>
+        <v>527</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>507</v>
+        <v>528</v>
       </c>
       <c r="B39" t="s">
-        <v>508</v>
+        <v>529</v>
       </c>
       <c r="C39" t="s">
-        <v>509</v>
+        <v>530</v>
       </c>
     </row>
     <row r="41" spans="2:3">
       <c r="B41" t="s">
-        <v>510</v>
+        <v>531</v>
       </c>
       <c r="C41" t="s">
-        <v>511</v>
+        <v>532</v>
       </c>
     </row>
     <row r="42" spans="2:3">
       <c r="B42" t="s">
-        <v>512</v>
+        <v>533</v>
       </c>
       <c r="C42" t="s">
-        <v>513</v>
+        <v>534</v>
       </c>
     </row>
     <row r="43" spans="2:3">
       <c r="B43" t="s">
-        <v>514</v>
+        <v>535</v>
       </c>
       <c r="C43" t="s">
-        <v>515</v>
+        <v>536</v>
       </c>
     </row>
     <row r="44" spans="2:3">
       <c r="B44" t="s">
-        <v>516</v>
+        <v>537</v>
       </c>
       <c r="C44" t="s">
-        <v>517</v>
+        <v>538</v>
       </c>
     </row>
     <row r="45" spans="2:3">
       <c r="B45" t="s">
-        <v>518</v>
+        <v>539</v>
       </c>
       <c r="C45" t="s">
-        <v>519</v>
+        <v>540</v>
       </c>
     </row>
     <row r="46" spans="2:3">
       <c r="B46" t="s">
-        <v>520</v>
+        <v>541</v>
       </c>
       <c r="C46" t="s">
-        <v>521</v>
+        <v>542</v>
       </c>
     </row>
     <row r="48" spans="2:3">
       <c r="B48" t="s">
-        <v>522</v>
+        <v>543</v>
       </c>
       <c r="C48" t="s">
-        <v>523</v>
+        <v>544</v>
       </c>
     </row>
     <row r="49" spans="2:3">
       <c r="B49" t="s">
-        <v>524</v>
+        <v>545</v>
       </c>
       <c r="C49" t="s">
-        <v>525</v>
+        <v>546</v>
       </c>
     </row>
     <row r="50" spans="2:3">
       <c r="B50" t="s">
-        <v>526</v>
+        <v>547</v>
       </c>
       <c r="C50" t="s">
-        <v>527</v>
+        <v>548</v>
       </c>
     </row>
     <row r="51" spans="2:3">
       <c r="B51" t="s">
-        <v>528</v>
+        <v>549</v>
       </c>
       <c r="C51" t="s">
-        <v>529</v>
+        <v>550</v>
       </c>
     </row>
     <row r="52" spans="2:3">
       <c r="B52" t="s">
-        <v>530</v>
+        <v>551</v>
       </c>
       <c r="C52" t="s">
-        <v>531</v>
+        <v>552</v>
       </c>
     </row>
     <row r="53" spans="2:3">
       <c r="B53" t="s">
-        <v>532</v>
+        <v>553</v>
       </c>
       <c r="C53" t="s">
-        <v>533</v>
+        <v>554</v>
       </c>
     </row>
     <row r="54" spans="2:3">
       <c r="B54" t="s">
-        <v>534</v>
+        <v>555</v>
       </c>
       <c r="C54" t="s">
-        <v>535</v>
+        <v>556</v>
       </c>
     </row>
     <row r="55" spans="2:3">
       <c r="B55" t="s">
-        <v>536</v>
+        <v>557</v>
       </c>
       <c r="C55" t="s">
-        <v>537</v>
+        <v>558</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>538</v>
+        <v>559</v>
       </c>
       <c r="B56" t="s">
-        <v>539</v>
+        <v>560</v>
       </c>
       <c r="C56" t="s">
-        <v>540</v>
+        <v>561</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>541</v>
+        <v>562</v>
       </c>
       <c r="B57" t="s">
-        <v>542</v>
+        <v>563</v>
       </c>
       <c r="C57" t="s">
-        <v>543</v>
+        <v>564</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>544</v>
+        <v>565</v>
       </c>
       <c r="B59" t="s">
-        <v>545</v>
+        <v>566</v>
       </c>
       <c r="C59" t="s">
-        <v>546</v>
+        <v>567</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>547</v>
+        <v>568</v>
       </c>
       <c r="B60" t="s">
-        <v>548</v>
+        <v>569</v>
       </c>
       <c r="C60" t="s">
-        <v>549</v>
+        <v>570</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>550</v>
+        <v>571</v>
       </c>
       <c r="B61" t="s">
-        <v>550</v>
+        <v>571</v>
       </c>
       <c r="C61" t="s">
-        <v>551</v>
+        <v>572</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>552</v>
+        <v>573</v>
       </c>
       <c r="B62" t="s">
-        <v>552</v>
+        <v>573</v>
       </c>
       <c r="C62" t="s">
-        <v>553</v>
+        <v>574</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>554</v>
+        <v>575</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>555</v>
+        <v>576</v>
       </c>
       <c r="B63" t="s">
-        <v>555</v>
+        <v>576</v>
       </c>
       <c r="C63" t="s">
-        <v>556</v>
+        <v>577</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>557</v>
+        <v>578</v>
       </c>
       <c r="B64" t="s">
-        <v>558</v>
+        <v>579</v>
       </c>
       <c r="C64" t="s">
-        <v>559</v>
+        <v>580</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>560</v>
+        <v>581</v>
       </c>
       <c r="B65" t="s">
-        <v>561</v>
+        <v>582</v>
       </c>
       <c r="C65" t="s">
-        <v>562</v>
+        <v>583</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>563</v>
+        <v>584</v>
       </c>
       <c r="B67" t="s">
-        <v>564</v>
+        <v>585</v>
       </c>
       <c r="C67" t="s">
-        <v>565</v>
+        <v>586</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>566</v>
+        <v>587</v>
       </c>
       <c r="B68" t="s">
-        <v>564</v>
+        <v>585</v>
       </c>
       <c r="C68" t="s">
-        <v>565</v>
+        <v>586</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>567</v>
+        <v>588</v>
       </c>
       <c r="B69" t="s">
-        <v>568</v>
+        <v>589</v>
       </c>
       <c r="C69" t="s">
-        <v>569</v>
+        <v>590</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>570</v>
+        <v>591</v>
       </c>
       <c r="B70" t="s">
-        <v>568</v>
+        <v>589</v>
       </c>
       <c r="C70" t="s">
-        <v>569</v>
+        <v>590</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>571</v>
+        <v>592</v>
       </c>
       <c r="B71" t="s">
-        <v>572</v>
+        <v>593</v>
       </c>
       <c r="C71" t="s">
-        <v>573</v>
+        <v>594</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>574</v>
+        <v>595</v>
       </c>
       <c r="B72" t="s">
-        <v>572</v>
+        <v>593</v>
       </c>
       <c r="C72" t="s">
-        <v>573</v>
+        <v>594</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>575</v>
+        <v>596</v>
       </c>
       <c r="B74" t="s">
-        <v>576</v>
+        <v>597</v>
       </c>
       <c r="C74" t="s">
-        <v>577</v>
+        <v>598</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>578</v>
+        <v>599</v>
       </c>
       <c r="B75" t="s">
-        <v>576</v>
+        <v>597</v>
       </c>
       <c r="C75" t="s">
-        <v>577</v>
+        <v>598</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>579</v>
+        <v>600</v>
       </c>
       <c r="B76" t="s">
-        <v>576</v>
+        <v>597</v>
       </c>
       <c r="C76" t="s">
-        <v>577</v>
+        <v>598</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>580</v>
+        <v>601</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>581</v>
+        <v>602</v>
       </c>
       <c r="C77" t="s">
-        <v>582</v>
+        <v>603</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>583</v>
+        <v>604</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>584</v>
+        <v>605</v>
       </c>
       <c r="C78" t="s">
-        <v>585</v>
+        <v>606</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>586</v>
+        <v>607</v>
       </c>
       <c r="B79" t="s">
-        <v>584</v>
+        <v>605</v>
       </c>
       <c r="C79" t="s">
-        <v>585</v>
+        <v>606</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>587</v>
+        <v>608</v>
       </c>
       <c r="B80" t="s">
-        <v>584</v>
+        <v>605</v>
       </c>
       <c r="C80" t="s">
-        <v>585</v>
+        <v>606</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>588</v>
+        <v>609</v>
       </c>
       <c r="B81" t="s">
-        <v>589</v>
+        <v>610</v>
       </c>
       <c r="C81" t="s">
-        <v>590</v>
+        <v>611</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>591</v>
+        <v>612</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>592</v>
+        <v>613</v>
       </c>
       <c r="B82" t="s">
-        <v>593</v>
+        <v>614</v>
       </c>
       <c r="C82" t="s">
-        <v>594</v>
+        <v>615</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>595</v>
+        <v>616</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" t="s">
+        <v>617</v>
+      </c>
+      <c r="B85" t="s">
+        <v>617</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" t="s">
+        <v>619</v>
+      </c>
+      <c r="B86" t="s">
+        <v>619</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>621</v>
+      </c>
+      <c r="B87" t="s">
+        <v>433</v>
       </c>
     </row>
   </sheetData>
@@ -9169,48 +10038,48 @@
   <sheetData>
     <row r="1" spans="2:5">
       <c r="B1" t="s">
-        <v>596</v>
+        <v>622</v>
       </c>
       <c r="C1" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="D1" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="E1" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2" ht="30" customHeight="1" spans="1:2">
       <c r="A2" t="s">
-        <v>597</v>
+        <v>623</v>
       </c>
       <c r="B2" s="1"/>
     </row>
     <row r="3" ht="30" customHeight="1" spans="1:5">
       <c r="A3" t="s">
-        <v>598</v>
+        <v>624</v>
       </c>
       <c r="B3" s="1"/>
       <c r="E3" s="1"/>
     </row>
     <row r="4" ht="30" customHeight="1" spans="1:5">
       <c r="A4" t="s">
-        <v>599</v>
+        <v>625</v>
       </c>
       <c r="B4" s="1"/>
       <c r="E4" s="1"/>
     </row>
     <row r="5" ht="30" customHeight="1" spans="1:5">
       <c r="A5" t="s">
-        <v>600</v>
+        <v>626</v>
       </c>
       <c r="B5" s="1"/>
       <c r="E5" s="1"/>
     </row>
     <row r="6" ht="30" customHeight="1" spans="1:5">
       <c r="A6" t="s">
-        <v>601</v>
+        <v>627</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -9218,7 +10087,7 @@
     </row>
     <row r="7" ht="30" customHeight="1" spans="1:5">
       <c r="A7" t="s">
-        <v>602</v>
+        <v>628</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
